--- a/KTTM/wwwroot/Doc/ExcelAttach.xlsx
+++ b/KTTM/wwwroot/Doc/ExcelAttach.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\ST\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NetCore\STS\KTTM\KTTM\wwwroot\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CD06E7-3493-4E2E-8559-D5803C824733}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD613FF-8C77-451C-8CDA-93CE767C84E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WI" sheetId="83" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="83" r:id="rId1"/>
     <sheet name="PH" sheetId="84" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>

--- a/KTTM/wwwroot/Doc/ExcelAttach.xlsx
+++ b/KTTM/wwwroot/Doc/ExcelAttach.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NetCore\STS\KTTM\KTTM\wwwroot\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huukhanh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD613FF-8C77-451C-8CDA-93CE767C84E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E6C856-83E2-4DC2-97E8-54468FAC9029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="83" r:id="rId1"/>
     <sheet name="PH" sheetId="84" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>CODE ĐOÀN</t>
   </si>
@@ -450,9 +459,9 @@
     <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="26" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Dấu phẩy" xfId="26" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_WI1" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,7 +478,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -792,10 +801,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1270,23 +1279,11 @@
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15">
-        <f>SUM(D2:D16)</f>
-        <v>6795000</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="25"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="25"/>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="25"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KTTM/wwwroot/Doc/ExcelAttach.xlsx
+++ b/KTTM/wwwroot/Doc/ExcelAttach.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huukhanh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NetCore\STS\KTTM\KTTM\wwwroot\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E6C856-83E2-4DC2-97E8-54468FAC9029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95082593-8FA5-4C4D-977C-CDCCD513DD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="83" r:id="rId1"/>
     <sheet name="PH" sheetId="84" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>CODE ĐOÀN</t>
   </si>
@@ -168,6 +159,33 @@
   </si>
   <si>
     <t>6277337020</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>DSKhongVAT</t>
+  </si>
+  <si>
+    <t>LinkHDDT</t>
+  </si>
+  <si>
+    <t>MaTraCuu</t>
+  </si>
+  <si>
+    <t>NoQuay</t>
+  </si>
+  <si>
+    <t>CoQuay</t>
+  </si>
+  <si>
+    <t>BoPhan</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Soxe</t>
   </si>
 </sst>
 </file>
@@ -801,10 +819,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -825,7 +843,7 @@
     <col min="15" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -865,8 +883,35 @@
       <c r="M1" s="19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -892,8 +937,17 @@
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -919,8 +973,17 @@
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -946,8 +1009,17 @@
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -973,8 +1045,17 @@
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1000,9 +1081,17 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1028,9 +1117,17 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="14"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1056,9 +1153,17 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
@@ -1084,9 +1189,17 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
@@ -1112,9 +1225,17 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1140,9 +1261,17 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1168,9 +1297,17 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1196,9 +1333,17 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
@@ -1224,8 +1369,17 @@
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1251,8 +1405,17 @@
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
@@ -1278,6 +1441,15 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F18" s="25"/>

--- a/KTTM/wwwroot/Doc/ExcelAttach.xlsx
+++ b/KTTM/wwwroot/Doc/ExcelAttach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NetCore\STS\KTTM\KTTM\wwwroot\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95082593-8FA5-4C4D-977C-CDCCD513DD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DD4D98-942E-4F5D-9E4D-45C24E3E2987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>CODE ĐOÀN</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Soxe</t>
+  </si>
+  <si>
+    <t>DienGiai</t>
   </si>
 </sst>
 </file>
@@ -193,8 +196,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -247,12 +250,12 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +355,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,51 +415,57 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="26" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="26" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="21" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="21" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -819,10 +834,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -840,78 +855,83 @@
     <col min="12" max="12" width="13.85546875" style="12" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="12" customWidth="1"/>
     <col min="14" max="14" width="17.28515625" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="22" width="9.140625" style="6"/>
+    <col min="23" max="23" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W1" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -924,30 +944,31 @@
       <c r="D2" s="11">
         <v>450000</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -960,30 +981,31 @@
       <c r="D3" s="11">
         <v>450000</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -996,30 +1018,31 @@
       <c r="D4" s="11">
         <v>450000</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -1032,30 +1055,31 @@
       <c r="D5" s="11">
         <v>600000</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1068,30 +1092,31 @@
       <c r="D6" s="11">
         <v>930000</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1104,30 +1129,31 @@
       <c r="D7" s="11">
         <v>90000</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1140,30 +1166,31 @@
       <c r="D8" s="11">
         <v>450000</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
@@ -1176,30 +1203,31 @@
       <c r="D9" s="11">
         <v>225000</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
@@ -1212,30 +1240,31 @@
       <c r="D10" s="11">
         <v>450000</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1248,30 +1277,31 @@
       <c r="D11" s="11">
         <v>350000</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1284,30 +1314,31 @@
       <c r="D12" s="11">
         <v>700000</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1320,30 +1351,31 @@
       <c r="D13" s="11">
         <v>450000</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
@@ -1356,30 +1388,31 @@
       <c r="D14" s="11">
         <v>300000</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1392,30 +1425,31 @@
       <c r="D15" s="11">
         <v>550000</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
@@ -1428,34 +1462,35 @@
       <c r="D16" s="11">
         <v>350000</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="25"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="25"/>
+      <c r="E20" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
